--- a/PunchPersonalityStrings.xlsx
+++ b/PunchPersonalityStrings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidklotz/Repos/PtC2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62105CD6-91F5-6B40-9EEA-1DC811286618}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBBA18-B0A5-9B49-B57B-D290BD86C19E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4040" windowWidth="28040" windowHeight="17440" xr2:uid="{4F4F7EDD-7B24-4F46-B33C-CB5128DE0DB9}"/>
+    <workbookView xWindow="1940" yWindow="4040" windowWidth="35180" windowHeight="20660" xr2:uid="{4F4F7EDD-7B24-4F46-B33C-CB5128DE0DB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Extroversion</t>
   </si>
@@ -97,6 +97,51 @@
   </si>
   <si>
     <t>Plist Item #</t>
+  </si>
+  <si>
+    <t>You're kind of a mild, milquetoast sort, aren't you? At least you're quiet.</t>
+  </si>
+  <si>
+    <t>No one cares to hear your stories. Keep them to yourself.</t>
+  </si>
+  <si>
+    <t>You like people. They do not necessarily like you.</t>
+  </si>
+  <si>
+    <t>People are drawn to your neuroticism they same way they are drawn to looking at car crashes.</t>
+  </si>
+  <si>
+    <t>No one cares about your problems. Keep them to yourself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighten up, Francis. </t>
+  </si>
+  <si>
+    <t>You must be tough to be around.</t>
+  </si>
+  <si>
+    <t>Whoa! Do you have an off switch???</t>
+  </si>
+  <si>
+    <t>At least you only bore people with your problems when they ask.</t>
+  </si>
+  <si>
+    <t>That's right…keep it all bottled up.</t>
+  </si>
+  <si>
+    <t>Great…here comes another one of your stories…</t>
+  </si>
+  <si>
+    <t>Focusing on your problems is a great way to make them worse!</t>
+  </si>
+  <si>
+    <t>You have so much to give to the world…too bad no one wants it.</t>
+  </si>
+  <si>
+    <t>I'd encourage you to talk about your problems less.</t>
+  </si>
+  <si>
+    <t>No one cares to hear your pedantic opinions. Keep them to yourself.</t>
   </si>
 </sst>
 </file>
@@ -453,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE97C456-C3C1-6648-9BF8-8093A0F6D1FF}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,6 +807,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -782,6 +830,9 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -802,6 +853,9 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -822,6 +876,9 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -842,6 +899,9 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -931,6 +991,9 @@
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -951,6 +1014,9 @@
       <c r="F22">
         <v>0</v>
       </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -971,6 +1037,9 @@
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -991,6 +1060,9 @@
       <c r="F24">
         <v>0</v>
       </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1011,6 +1083,9 @@
       <c r="F25">
         <v>1</v>
       </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -1031,6 +1106,9 @@
       <c r="F26">
         <v>0</v>
       </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1051,6 +1129,9 @@
       <c r="F27">
         <v>1</v>
       </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1071,6 +1152,9 @@
       <c r="F28">
         <v>0</v>
       </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1091,6 +1175,9 @@
       <c r="F29">
         <v>1</v>
       </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1111,6 +1198,9 @@
       <c r="F30">
         <v>0</v>
       </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -1131,6 +1221,9 @@
       <c r="F31">
         <v>1</v>
       </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -1151,8 +1244,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1170,6 +1266,9 @@
       </c>
       <c r="F33">
         <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
